--- a/inst/extdata/oa_gene_expression_batch2.xlsx
+++ b/inst/extdata/oa_gene_expression_batch2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidants\_repos\OAtools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ABE0591-B12C-4B77-9F59-ACC0DC99D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2227E16-CA31-409C-9A0E-005D0394051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A6545EA7-2D35-4FB6-82A1-0F6ED95AA1C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A6545EA7-2D35-4FB6-82A1-0F6ED95AA1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Multicomponent Data" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>Sample-101</t>
-  </si>
-  <si>
     <t>RV_1of2_Vi99990016_po</t>
   </si>
   <si>
@@ -426,43 +423,46 @@
     <t>Inconclusive</t>
   </si>
   <si>
-    <t>Sample-102</t>
-  </si>
-  <si>
-    <t>Sample-103</t>
-  </si>
-  <si>
     <t>Amp</t>
-  </si>
-  <si>
-    <t>Sample-104</t>
-  </si>
-  <si>
-    <t>Sample-105</t>
-  </si>
-  <si>
-    <t>Sample-106</t>
-  </si>
-  <si>
-    <t>Sample-107</t>
-  </si>
-  <si>
-    <t>Sample-108</t>
-  </si>
-  <si>
-    <t>Sample-109</t>
-  </si>
-  <si>
-    <t>Sample-110</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Sample-111</t>
+    <t>Control B</t>
   </si>
   <si>
-    <t>Control B</t>
+    <t>Sample-201</t>
+  </si>
+  <si>
+    <t>Sample-202</t>
+  </si>
+  <si>
+    <t>Sample-203</t>
+  </si>
+  <si>
+    <t>Sample-204</t>
+  </si>
+  <si>
+    <t>Sample-205</t>
+  </si>
+  <si>
+    <t>Sample-206</t>
+  </si>
+  <si>
+    <t>Sample-207</t>
+  </si>
+  <si>
+    <t>Sample-208</t>
+  </si>
+  <si>
+    <t>Sample-209</t>
+  </si>
+  <si>
+    <t>Sample-210</t>
+  </si>
+  <si>
+    <t>Sample-211</t>
   </si>
 </sst>
 </file>
@@ -54629,11 +54629,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43472925-049C-4186-875A-02F6A11FC442}">
   <dimension ref="A20:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -54702,28 +54705,28 @@
         <v>116</v>
       </c>
       <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
         <v>117</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>118</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
       <c r="H21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" t="s">
         <v>120</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>121</v>
       </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -54732,16 +54735,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" t="s">
         <v>123</v>
-      </c>
-      <c r="O21" t="s">
-        <v>122</v>
-      </c>
-      <c r="P21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>124</v>
       </c>
       <c r="R21" s="1">
         <v>5024.2060546875</v>
@@ -54758,28 +54761,28 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
         <v>117</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>118</v>
-      </c>
-      <c r="F22" t="s">
-        <v>119</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
       </c>
       <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
         <v>120</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>121</v>
       </c>
-      <c r="J22" t="s">
-        <v>122</v>
-      </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -54788,16 +54791,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" t="s">
         <v>123</v>
-      </c>
-      <c r="O22" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>124</v>
       </c>
       <c r="R22" s="1">
         <v>4912.7646484375</v>
@@ -54814,28 +54817,28 @@
         <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
       </c>
       <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
         <v>120</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>121</v>
       </c>
-      <c r="J23" t="s">
-        <v>122</v>
-      </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -54844,16 +54847,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" t="s">
         <v>123</v>
-      </c>
-      <c r="O23" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>124</v>
       </c>
       <c r="R23" s="1">
         <v>5049.5</v>
@@ -54870,28 +54873,28 @@
         <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
       <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
         <v>120</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>121</v>
       </c>
-      <c r="J24" t="s">
-        <v>122</v>
-      </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -54900,16 +54903,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q24" t="s">
         <v>123</v>
-      </c>
-      <c r="O24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>124</v>
       </c>
       <c r="R24" s="1">
         <v>4794</v>
@@ -54926,28 +54929,28 @@
         <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
       </c>
       <c r="H25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" t="s">
         <v>120</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>121</v>
       </c>
-      <c r="J25" t="s">
-        <v>122</v>
-      </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -54956,16 +54959,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O25" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" t="s">
         <v>123</v>
-      </c>
-      <c r="O25" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>124</v>
       </c>
       <c r="R25" s="1">
         <v>4860.88232421875</v>
@@ -54982,28 +54985,28 @@
         <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
       </c>
       <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
         <v>120</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>121</v>
       </c>
-      <c r="J26" t="s">
-        <v>122</v>
-      </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
@@ -55012,16 +55015,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" t="s">
         <v>123</v>
-      </c>
-      <c r="O26" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>124</v>
       </c>
       <c r="R26" s="1">
         <v>4771.88232421875</v>
@@ -55038,19 +55041,19 @@
         <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I27" s="1">
         <v>8.2161939999999998</v>
@@ -55068,16 +55071,16 @@
         <v>0.69713327874539432</v>
       </c>
       <c r="N27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R27" s="1">
         <v>5081.14697265625</v>
@@ -55094,19 +55097,19 @@
         <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" s="1">
         <v>8.3236589999999993</v>
@@ -55124,16 +55127,16 @@
         <v>0.77865769090622716</v>
       </c>
       <c r="N28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R28" s="1">
         <v>5090.38232421875</v>
@@ -55150,28 +55153,28 @@
         <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
         <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>119</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
       </c>
       <c r="H29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" t="s">
         <v>120</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>121</v>
       </c>
-      <c r="J29" t="s">
-        <v>122</v>
-      </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
@@ -55180,16 +55183,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" t="s">
         <v>123</v>
-      </c>
-      <c r="O29" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>124</v>
       </c>
       <c r="R29" s="1">
         <v>5429.5</v>
@@ -55206,28 +55209,28 @@
         <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
         <v>118</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
       </c>
       <c r="H30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" t="s">
         <v>120</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>121</v>
       </c>
-      <c r="J30" t="s">
-        <v>122</v>
-      </c>
       <c r="K30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -55236,16 +55239,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30" t="s">
         <v>123</v>
-      </c>
-      <c r="O30" t="s">
-        <v>122</v>
-      </c>
-      <c r="P30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>124</v>
       </c>
       <c r="R30" s="1">
         <v>5412.05859375</v>
@@ -55262,28 +55265,28 @@
         <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
       </c>
       <c r="H31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" t="s">
         <v>120</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>121</v>
       </c>
-      <c r="J31" t="s">
-        <v>122</v>
-      </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
@@ -55292,16 +55295,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q31" t="s">
         <v>123</v>
-      </c>
-      <c r="O31" t="s">
-        <v>122</v>
-      </c>
-      <c r="P31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>124</v>
       </c>
       <c r="R31" s="1">
         <v>5319.64697265625</v>
@@ -55318,28 +55321,28 @@
         <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" t="s">
         <v>120</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>121</v>
       </c>
-      <c r="J32" t="s">
-        <v>122</v>
-      </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L32" s="1">
         <v>0</v>
@@ -55348,16 +55351,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" t="s">
         <v>123</v>
-      </c>
-      <c r="O32" t="s">
-        <v>122</v>
-      </c>
-      <c r="P32" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>124</v>
       </c>
       <c r="R32" s="1">
         <v>5318.41162109375</v>
@@ -55374,28 +55377,28 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
       </c>
       <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" t="s">
         <v>120</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>121</v>
       </c>
-      <c r="J33" t="s">
-        <v>122</v>
-      </c>
       <c r="K33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
@@ -55404,16 +55407,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" t="s">
         <v>123</v>
-      </c>
-      <c r="O33" t="s">
-        <v>122</v>
-      </c>
-      <c r="P33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>124</v>
       </c>
       <c r="R33" s="1">
         <v>5330.14697265625</v>
@@ -55430,28 +55433,28 @@
         <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
       </c>
       <c r="H34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" t="s">
         <v>120</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>121</v>
       </c>
-      <c r="J34" t="s">
-        <v>122</v>
-      </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -55460,16 +55463,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" t="s">
         <v>123</v>
-      </c>
-      <c r="O34" t="s">
-        <v>122</v>
-      </c>
-      <c r="P34" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>124</v>
       </c>
       <c r="R34" s="1">
         <v>5169.88232421875</v>
@@ -55486,19 +55489,19 @@
         <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I35" s="1">
         <v>8.8256160000000001</v>
@@ -55516,16 +55519,16 @@
         <v>0.76803076579971052</v>
       </c>
       <c r="N35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R35" s="1">
         <v>5369.32373046875</v>
@@ -55542,19 +55545,19 @@
         <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I36" s="1">
         <v>8.9186169999999994</v>
@@ -55572,16 +55575,16 @@
         <v>0.74002051878456665</v>
       </c>
       <c r="N36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R36" s="1">
         <v>5499.82373046875</v>
@@ -55598,28 +55601,28 @@
         <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
         <v>118</v>
-      </c>
-      <c r="F37" t="s">
-        <v>119</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
       </c>
       <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" t="s">
         <v>120</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>121</v>
       </c>
-      <c r="J37" t="s">
-        <v>122</v>
-      </c>
       <c r="K37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -55628,16 +55631,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q37" t="s">
         <v>123</v>
-      </c>
-      <c r="O37" t="s">
-        <v>122</v>
-      </c>
-      <c r="P37" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>124</v>
       </c>
       <c r="R37" s="1">
         <v>5116.029296875</v>
@@ -55654,28 +55657,28 @@
         <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
         <v>118</v>
-      </c>
-      <c r="F38" t="s">
-        <v>119</v>
       </c>
       <c r="G38" t="s">
         <v>3</v>
       </c>
       <c r="H38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" t="s">
         <v>120</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>121</v>
       </c>
-      <c r="J38" t="s">
-        <v>122</v>
-      </c>
       <c r="K38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -55684,16 +55687,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" t="s">
         <v>123</v>
-      </c>
-      <c r="O38" t="s">
-        <v>122</v>
-      </c>
-      <c r="P38" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>124</v>
       </c>
       <c r="R38" s="1">
         <v>5334.61767578125</v>
@@ -55710,28 +55713,28 @@
         <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
       </c>
       <c r="H39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" t="s">
         <v>120</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>121</v>
       </c>
-      <c r="J39" t="s">
-        <v>122</v>
-      </c>
       <c r="K39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -55740,16 +55743,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" t="s">
+        <v>121</v>
+      </c>
+      <c r="P39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q39" t="s">
         <v>123</v>
-      </c>
-      <c r="O39" t="s">
-        <v>122</v>
-      </c>
-      <c r="P39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>124</v>
       </c>
       <c r="R39" s="1">
         <v>5239.11767578125</v>
@@ -55766,28 +55769,28 @@
         <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
       </c>
       <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" t="s">
         <v>120</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>121</v>
       </c>
-      <c r="J40" t="s">
-        <v>122</v>
-      </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -55796,16 +55799,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
+        <v>122</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q40" t="s">
         <v>123</v>
-      </c>
-      <c r="O40" t="s">
-        <v>122</v>
-      </c>
-      <c r="P40" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>124</v>
       </c>
       <c r="R40" s="1">
         <v>5552.7939453125</v>
@@ -55822,28 +55825,28 @@
         <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
       </c>
       <c r="H41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" t="s">
         <v>120</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>121</v>
       </c>
-      <c r="J41" t="s">
-        <v>122</v>
-      </c>
       <c r="K41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
@@ -55852,16 +55855,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
+        <v>122</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41" t="s">
         <v>123</v>
-      </c>
-      <c r="O41" t="s">
-        <v>122</v>
-      </c>
-      <c r="P41" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>124</v>
       </c>
       <c r="R41" s="1">
         <v>5722.970703125</v>
@@ -55878,28 +55881,28 @@
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
       </c>
       <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
         <v>120</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>121</v>
       </c>
-      <c r="J42" t="s">
-        <v>122</v>
-      </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -55908,16 +55911,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q42" t="s">
         <v>123</v>
-      </c>
-      <c r="O42" t="s">
-        <v>122</v>
-      </c>
-      <c r="P42" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>124</v>
       </c>
       <c r="R42" s="1">
         <v>5672.94140625</v>
@@ -55934,19 +55937,19 @@
         <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I43" s="1">
         <v>16.813658</v>
@@ -55964,16 +55967,16 @@
         <v>0.83232300349555199</v>
       </c>
       <c r="N43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R43" s="1">
         <v>5311.2353515625</v>
@@ -55990,19 +55993,19 @@
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I44" s="1">
         <v>16.812754000000002</v>
@@ -56020,16 +56023,16 @@
         <v>0.85244479461121525</v>
       </c>
       <c r="N44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R44" s="1">
         <v>5559.91162109375</v>
@@ -56046,28 +56049,28 @@
         <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" t="s">
         <v>118</v>
-      </c>
-      <c r="F45" t="s">
-        <v>119</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" t="s">
         <v>120</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>121</v>
       </c>
-      <c r="J45" t="s">
-        <v>122</v>
-      </c>
       <c r="K45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -56076,16 +56079,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
+        <v>122</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" t="s">
         <v>123</v>
-      </c>
-      <c r="O45" t="s">
-        <v>122</v>
-      </c>
-      <c r="P45" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>124</v>
       </c>
       <c r="R45" s="1">
         <v>5410.2353515625</v>
@@ -56102,28 +56105,28 @@
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
         <v>118</v>
-      </c>
-      <c r="F46" t="s">
-        <v>119</v>
       </c>
       <c r="G46" t="s">
         <v>3</v>
       </c>
       <c r="H46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" t="s">
         <v>120</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>121</v>
       </c>
-      <c r="J46" t="s">
-        <v>122</v>
-      </c>
       <c r="K46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -56132,16 +56135,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q46" t="s">
         <v>123</v>
-      </c>
-      <c r="O46" t="s">
-        <v>122</v>
-      </c>
-      <c r="P46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>124</v>
       </c>
       <c r="R46" s="1">
         <v>5274.470703125</v>
@@ -56158,28 +56161,28 @@
         <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
         <v>3</v>
       </c>
       <c r="H47" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" t="s">
         <v>120</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>121</v>
       </c>
-      <c r="J47" t="s">
-        <v>122</v>
-      </c>
       <c r="K47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
@@ -56188,16 +56191,16 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" t="s">
+        <v>121</v>
+      </c>
+      <c r="P47" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q47" t="s">
         <v>123</v>
-      </c>
-      <c r="O47" t="s">
-        <v>122</v>
-      </c>
-      <c r="P47" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>124</v>
       </c>
       <c r="R47" s="1">
         <v>5656.38232421875</v>
@@ -56214,28 +56217,28 @@
         <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" t="s">
         <v>3</v>
       </c>
       <c r="H48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" t="s">
         <v>120</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>121</v>
       </c>
-      <c r="J48" t="s">
-        <v>122</v>
-      </c>
       <c r="K48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L48" s="1">
         <v>0</v>
@@ -56244,16 +56247,16 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" t="s">
         <v>123</v>
-      </c>
-      <c r="O48" t="s">
-        <v>122</v>
-      </c>
-      <c r="P48" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>124</v>
       </c>
       <c r="R48" s="1">
         <v>5547.5</v>
@@ -56270,28 +56273,28 @@
         <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" t="s">
         <v>120</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>121</v>
       </c>
-      <c r="J49" t="s">
-        <v>122</v>
-      </c>
       <c r="K49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L49" s="1">
         <v>0</v>
@@ -56300,16 +56303,16 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
+        <v>122</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q49" t="s">
         <v>123</v>
-      </c>
-      <c r="O49" t="s">
-        <v>122</v>
-      </c>
-      <c r="P49" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>124</v>
       </c>
       <c r="R49" s="1">
         <v>5781.7353515625</v>
@@ -56326,28 +56329,28 @@
         <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" t="s">
         <v>3</v>
       </c>
       <c r="H50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s">
         <v>120</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>121</v>
       </c>
-      <c r="J50" t="s">
-        <v>122</v>
-      </c>
       <c r="K50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L50" s="1">
         <v>0</v>
@@ -56356,16 +56359,16 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
+        <v>122</v>
+      </c>
+      <c r="O50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P50" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q50" t="s">
         <v>123</v>
-      </c>
-      <c r="O50" t="s">
-        <v>122</v>
-      </c>
-      <c r="P50" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>124</v>
       </c>
       <c r="R50" s="1">
         <v>5661.7646484375</v>
@@ -56382,19 +56385,19 @@
         <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" t="s">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I51" s="1">
         <v>20.021163999999999</v>
@@ -56412,16 +56415,16 @@
         <v>0.87376761844691397</v>
       </c>
       <c r="N51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R51" s="1">
         <v>5684.2939453125</v>
@@ -56438,19 +56441,19 @@
         <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" t="s">
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I52" s="1">
         <v>19.564700999999999</v>
@@ -56468,16 +56471,16 @@
         <v>0.81399788481233004</v>
       </c>
       <c r="N52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R52" s="1">
         <v>5621.7939453125</v>
@@ -56494,28 +56497,28 @@
         <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" t="s">
         <v>118</v>
-      </c>
-      <c r="F53" t="s">
-        <v>119</v>
       </c>
       <c r="G53" t="s">
         <v>3</v>
       </c>
       <c r="H53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" t="s">
         <v>120</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>121</v>
       </c>
-      <c r="J53" t="s">
-        <v>122</v>
-      </c>
       <c r="K53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L53" s="1">
         <v>0</v>
@@ -56524,16 +56527,16 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
+        <v>122</v>
+      </c>
+      <c r="O53" t="s">
+        <v>121</v>
+      </c>
+      <c r="P53" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q53" t="s">
         <v>123</v>
-      </c>
-      <c r="O53" t="s">
-        <v>122</v>
-      </c>
-      <c r="P53" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>124</v>
       </c>
       <c r="R53" s="1">
         <v>5391.44140625</v>
@@ -56550,28 +56553,28 @@
         <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
         <v>118</v>
-      </c>
-      <c r="F54" t="s">
-        <v>119</v>
       </c>
       <c r="G54" t="s">
         <v>3</v>
       </c>
       <c r="H54" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" t="s">
         <v>120</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>121</v>
       </c>
-      <c r="J54" t="s">
-        <v>122</v>
-      </c>
       <c r="K54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
@@ -56580,16 +56583,16 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q54" t="s">
         <v>123</v>
-      </c>
-      <c r="O54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P54" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>124</v>
       </c>
       <c r="R54" s="1">
         <v>5611.17626953125</v>
@@ -56606,28 +56609,28 @@
         <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G55" t="s">
         <v>3</v>
       </c>
       <c r="H55" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" t="s">
         <v>120</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>121</v>
       </c>
-      <c r="J55" t="s">
-        <v>122</v>
-      </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
@@ -56636,16 +56639,16 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
+        <v>122</v>
+      </c>
+      <c r="O55" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q55" t="s">
         <v>123</v>
-      </c>
-      <c r="O55" t="s">
-        <v>122</v>
-      </c>
-      <c r="P55" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>124</v>
       </c>
       <c r="R55" s="1">
         <v>5868.529296875</v>
@@ -56662,28 +56665,28 @@
         <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
         <v>3</v>
       </c>
       <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" t="s">
         <v>120</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>121</v>
       </c>
-      <c r="J56" t="s">
-        <v>122</v>
-      </c>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
@@ -56692,16 +56695,16 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
+        <v>122</v>
+      </c>
+      <c r="O56" t="s">
+        <v>121</v>
+      </c>
+      <c r="P56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q56" t="s">
         <v>123</v>
-      </c>
-      <c r="O56" t="s">
-        <v>122</v>
-      </c>
-      <c r="P56" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>124</v>
       </c>
       <c r="R56" s="1">
         <v>5563.2939453125</v>
@@ -56718,19 +56721,19 @@
         <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G57" t="s">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I57" s="1">
         <v>25.816092999999999</v>
@@ -56748,16 +56751,16 @@
         <v>0.97923131295377353</v>
       </c>
       <c r="N57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R57" s="1">
         <v>5957.41162109375</v>
@@ -56774,19 +56777,19 @@
         <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I58" s="1">
         <v>25.72747</v>
@@ -56804,16 +56807,16 @@
         <v>0.97757534726960638</v>
       </c>
       <c r="N58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R58" s="1">
         <v>6047.2646484375</v>
@@ -56830,19 +56833,19 @@
         <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G59" t="s">
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I59" s="1">
         <v>10.827185999999999</v>
@@ -56860,16 +56863,16 @@
         <v>0.87106799290137293</v>
       </c>
       <c r="N59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R59" s="1">
         <v>5741.67626953125</v>
@@ -56886,19 +56889,19 @@
         <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I60" s="1">
         <v>10.717912999999999</v>
@@ -56916,16 +56919,16 @@
         <v>0.81036737525438352</v>
       </c>
       <c r="N60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R60" s="1">
         <v>5817.2646484375</v>
@@ -56942,28 +56945,28 @@
         <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" t="s">
         <v>118</v>
-      </c>
-      <c r="F61" t="s">
-        <v>119</v>
       </c>
       <c r="G61" t="s">
         <v>3</v>
       </c>
       <c r="H61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" t="s">
         <v>120</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>121</v>
       </c>
-      <c r="J61" t="s">
-        <v>122</v>
-      </c>
       <c r="K61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
@@ -56972,16 +56975,16 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
+        <v>122</v>
+      </c>
+      <c r="O61" t="s">
+        <v>121</v>
+      </c>
+      <c r="P61" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q61" t="s">
         <v>123</v>
-      </c>
-      <c r="O61" t="s">
-        <v>122</v>
-      </c>
-      <c r="P61" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>124</v>
       </c>
       <c r="R61" s="1">
         <v>5761.05859375</v>
@@ -56998,28 +57001,28 @@
         <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
         <v>118</v>
-      </c>
-      <c r="F62" t="s">
-        <v>119</v>
       </c>
       <c r="G62" t="s">
         <v>3</v>
       </c>
       <c r="H62" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" t="s">
         <v>120</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>121</v>
       </c>
-      <c r="J62" t="s">
-        <v>122</v>
-      </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
@@ -57028,16 +57031,16 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
+        <v>122</v>
+      </c>
+      <c r="O62" t="s">
+        <v>121</v>
+      </c>
+      <c r="P62" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q62" t="s">
         <v>123</v>
-      </c>
-      <c r="O62" t="s">
-        <v>122</v>
-      </c>
-      <c r="P62" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>124</v>
       </c>
       <c r="R62" s="1">
         <v>5710.08837890625</v>
@@ -57054,28 +57057,28 @@
         <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
         <v>3</v>
       </c>
       <c r="H63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" t="s">
         <v>120</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>121</v>
       </c>
-      <c r="J63" t="s">
-        <v>122</v>
-      </c>
       <c r="K63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
@@ -57084,16 +57087,16 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
+        <v>122</v>
+      </c>
+      <c r="O63" t="s">
+        <v>121</v>
+      </c>
+      <c r="P63" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q63" t="s">
         <v>123</v>
-      </c>
-      <c r="O63" t="s">
-        <v>122</v>
-      </c>
-      <c r="P63" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>124</v>
       </c>
       <c r="R63" s="1">
         <v>5929.7060546875</v>
@@ -57110,28 +57113,28 @@
         <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G64" t="s">
         <v>3</v>
       </c>
       <c r="H64" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64" t="s">
         <v>120</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>121</v>
       </c>
-      <c r="J64" t="s">
-        <v>122</v>
-      </c>
       <c r="K64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L64" s="1">
         <v>0</v>
@@ -57140,16 +57143,16 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
+        <v>122</v>
+      </c>
+      <c r="O64" t="s">
+        <v>121</v>
+      </c>
+      <c r="P64" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q64" t="s">
         <v>123</v>
-      </c>
-      <c r="O64" t="s">
-        <v>122</v>
-      </c>
-      <c r="P64" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>124</v>
       </c>
       <c r="R64" s="1">
         <v>5664.55859375</v>
@@ -57166,28 +57169,28 @@
         <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G65" t="s">
         <v>3</v>
       </c>
       <c r="H65" t="s">
+        <v>119</v>
+      </c>
+      <c r="I65" t="s">
         <v>120</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>121</v>
       </c>
-      <c r="J65" t="s">
-        <v>122</v>
-      </c>
       <c r="K65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
@@ -57196,16 +57199,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
+        <v>122</v>
+      </c>
+      <c r="O65" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q65" t="s">
         <v>123</v>
-      </c>
-      <c r="O65" t="s">
-        <v>122</v>
-      </c>
-      <c r="P65" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>124</v>
       </c>
       <c r="R65" s="1">
         <v>5382.5</v>
@@ -57222,28 +57225,28 @@
         <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
         <v>3</v>
       </c>
       <c r="H66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" t="s">
         <v>120</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>121</v>
       </c>
-      <c r="J66" t="s">
-        <v>122</v>
-      </c>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L66" s="1">
         <v>0</v>
@@ -57252,16 +57255,16 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
+        <v>122</v>
+      </c>
+      <c r="O66" t="s">
+        <v>121</v>
+      </c>
+      <c r="P66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q66" t="s">
         <v>123</v>
-      </c>
-      <c r="O66" t="s">
-        <v>122</v>
-      </c>
-      <c r="P66" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>124</v>
       </c>
       <c r="R66" s="1">
         <v>5966.05859375</v>
@@ -57278,19 +57281,19 @@
         <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I67" s="1">
         <v>11.540967</v>
@@ -57308,16 +57311,16 @@
         <v>0.82631353933361995</v>
       </c>
       <c r="N67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R67" s="1">
         <v>5867.970703125</v>
@@ -57334,19 +57337,19 @@
         <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I68" s="1">
         <v>11.378126</v>
@@ -57364,16 +57367,16 @@
         <v>0.78312290574911747</v>
       </c>
       <c r="N68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R68" s="1">
         <v>6013.970703125</v>
@@ -57390,28 +57393,28 @@
         <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" t="s">
         <v>118</v>
-      </c>
-      <c r="F69" t="s">
-        <v>119</v>
       </c>
       <c r="G69" t="s">
         <v>3</v>
       </c>
       <c r="H69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I69" t="s">
         <v>120</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>121</v>
       </c>
-      <c r="J69" t="s">
-        <v>122</v>
-      </c>
       <c r="K69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
@@ -57420,16 +57423,16 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
+        <v>122</v>
+      </c>
+      <c r="O69" t="s">
+        <v>121</v>
+      </c>
+      <c r="P69" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q69" t="s">
         <v>123</v>
-      </c>
-      <c r="O69" t="s">
-        <v>122</v>
-      </c>
-      <c r="P69" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>124</v>
       </c>
       <c r="R69" s="1">
         <v>5243.91162109375</v>
@@ -57446,28 +57449,28 @@
         <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" t="s">
         <v>118</v>
-      </c>
-      <c r="F70" t="s">
-        <v>119</v>
       </c>
       <c r="G70" t="s">
         <v>3</v>
       </c>
       <c r="H70" t="s">
+        <v>119</v>
+      </c>
+      <c r="I70" t="s">
         <v>120</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>121</v>
       </c>
-      <c r="J70" t="s">
-        <v>122</v>
-      </c>
       <c r="K70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
@@ -57476,16 +57479,16 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
+        <v>122</v>
+      </c>
+      <c r="O70" t="s">
+        <v>121</v>
+      </c>
+      <c r="P70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q70" t="s">
         <v>123</v>
-      </c>
-      <c r="O70" t="s">
-        <v>122</v>
-      </c>
-      <c r="P70" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>124</v>
       </c>
       <c r="R70" s="1">
         <v>5091.2646484375</v>
@@ -57502,28 +57505,28 @@
         <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G71" t="s">
         <v>3</v>
       </c>
       <c r="H71" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" t="s">
         <v>120</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>121</v>
       </c>
-      <c r="J71" t="s">
-        <v>122</v>
-      </c>
       <c r="K71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
@@ -57532,16 +57535,16 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
+        <v>122</v>
+      </c>
+      <c r="O71" t="s">
+        <v>121</v>
+      </c>
+      <c r="P71" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q71" t="s">
         <v>123</v>
-      </c>
-      <c r="O71" t="s">
-        <v>122</v>
-      </c>
-      <c r="P71" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>124</v>
       </c>
       <c r="R71" s="1">
         <v>5105.85302734375</v>
@@ -57558,28 +57561,28 @@
         <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G72" t="s">
         <v>3</v>
       </c>
       <c r="H72" t="s">
+        <v>119</v>
+      </c>
+      <c r="I72" t="s">
         <v>120</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>121</v>
       </c>
-      <c r="J72" t="s">
-        <v>122</v>
-      </c>
       <c r="K72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
@@ -57588,16 +57591,16 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
+        <v>122</v>
+      </c>
+      <c r="O72" t="s">
+        <v>121</v>
+      </c>
+      <c r="P72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q72" t="s">
         <v>123</v>
-      </c>
-      <c r="O72" t="s">
-        <v>122</v>
-      </c>
-      <c r="P72" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>124</v>
       </c>
       <c r="R72" s="1">
         <v>5155.05859375</v>
@@ -57614,28 +57617,28 @@
         <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G73" t="s">
         <v>3</v>
       </c>
       <c r="H73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" t="s">
         <v>120</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>121</v>
       </c>
-      <c r="J73" t="s">
-        <v>122</v>
-      </c>
       <c r="K73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L73" s="1">
         <v>0</v>
@@ -57644,16 +57647,16 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
+        <v>122</v>
+      </c>
+      <c r="O73" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q73" t="s">
         <v>123</v>
-      </c>
-      <c r="O73" t="s">
-        <v>122</v>
-      </c>
-      <c r="P73" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>124</v>
       </c>
       <c r="R73" s="1">
         <v>4848.11767578125</v>
@@ -57670,28 +57673,28 @@
         <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G74" t="s">
         <v>3</v>
       </c>
       <c r="H74" t="s">
+        <v>119</v>
+      </c>
+      <c r="I74" t="s">
         <v>120</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>121</v>
       </c>
-      <c r="J74" t="s">
-        <v>122</v>
-      </c>
       <c r="K74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L74" s="1">
         <v>0</v>
@@ -57700,16 +57703,16 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
+        <v>122</v>
+      </c>
+      <c r="O74" t="s">
+        <v>121</v>
+      </c>
+      <c r="P74" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q74" t="s">
         <v>123</v>
-      </c>
-      <c r="O74" t="s">
-        <v>122</v>
-      </c>
-      <c r="P74" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>124</v>
       </c>
       <c r="R74" s="1">
         <v>5081.2060546875</v>
@@ -57726,19 +57729,19 @@
         <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I75" s="1">
         <v>10.673012</v>
@@ -57756,16 +57759,16 @@
         <v>0.79702223901937441</v>
       </c>
       <c r="N75" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R75" s="1">
         <v>5042.2939453125</v>
@@ -57782,19 +57785,19 @@
         <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I76" s="1">
         <v>10.642618000000001</v>
@@ -57812,16 +57815,16 @@
         <v>0.82879400338014919</v>
       </c>
       <c r="N76" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R76" s="1">
         <v>5192.5</v>
@@ -57838,28 +57841,28 @@
         <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" t="s">
         <v>118</v>
-      </c>
-      <c r="F77" t="s">
-        <v>119</v>
       </c>
       <c r="G77" t="s">
         <v>3</v>
       </c>
       <c r="H77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" t="s">
         <v>120</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>121</v>
       </c>
-      <c r="J77" t="s">
-        <v>122</v>
-      </c>
       <c r="K77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L77" s="1">
         <v>0</v>
@@ -57868,16 +57871,16 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
+        <v>122</v>
+      </c>
+      <c r="O77" t="s">
+        <v>121</v>
+      </c>
+      <c r="P77" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q77" t="s">
         <v>123</v>
-      </c>
-      <c r="O77" t="s">
-        <v>122</v>
-      </c>
-      <c r="P77" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>124</v>
       </c>
       <c r="R77" s="1">
         <v>5372.88232421875</v>
@@ -57894,28 +57897,28 @@
         <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E78" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" t="s">
         <v>118</v>
-      </c>
-      <c r="F78" t="s">
-        <v>119</v>
       </c>
       <c r="G78" t="s">
         <v>3</v>
       </c>
       <c r="H78" t="s">
+        <v>119</v>
+      </c>
+      <c r="I78" t="s">
         <v>120</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>121</v>
       </c>
-      <c r="J78" t="s">
-        <v>122</v>
-      </c>
       <c r="K78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L78" s="1">
         <v>0</v>
@@ -57924,16 +57927,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
+        <v>122</v>
+      </c>
+      <c r="O78" t="s">
+        <v>121</v>
+      </c>
+      <c r="P78" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q78" t="s">
         <v>123</v>
-      </c>
-      <c r="O78" t="s">
-        <v>122</v>
-      </c>
-      <c r="P78" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>124</v>
       </c>
       <c r="R78" s="1">
         <v>5321.970703125</v>
@@ -57950,28 +57953,28 @@
         <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
         <v>3</v>
       </c>
       <c r="H79" t="s">
+        <v>119</v>
+      </c>
+      <c r="I79" t="s">
         <v>120</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>121</v>
       </c>
-      <c r="J79" t="s">
-        <v>122</v>
-      </c>
       <c r="K79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
@@ -57980,16 +57983,16 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
+        <v>122</v>
+      </c>
+      <c r="O79" t="s">
+        <v>121</v>
+      </c>
+      <c r="P79" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q79" t="s">
         <v>123</v>
-      </c>
-      <c r="O79" t="s">
-        <v>122</v>
-      </c>
-      <c r="P79" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>124</v>
       </c>
       <c r="R79" s="1">
         <v>4935.35302734375</v>
@@ -58006,28 +58009,28 @@
         <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
         <v>3</v>
       </c>
       <c r="H80" t="s">
+        <v>119</v>
+      </c>
+      <c r="I80" t="s">
         <v>120</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>121</v>
       </c>
-      <c r="J80" t="s">
-        <v>122</v>
-      </c>
       <c r="K80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L80" s="1">
         <v>0</v>
@@ -58036,16 +58039,16 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
+        <v>122</v>
+      </c>
+      <c r="O80" t="s">
+        <v>121</v>
+      </c>
+      <c r="P80" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q80" t="s">
         <v>123</v>
-      </c>
-      <c r="O80" t="s">
-        <v>122</v>
-      </c>
-      <c r="P80" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>124</v>
       </c>
       <c r="R80" s="1">
         <v>5098.17626953125</v>
@@ -58062,28 +58065,28 @@
         <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G81" t="s">
         <v>3</v>
       </c>
       <c r="H81" t="s">
+        <v>119</v>
+      </c>
+      <c r="I81" t="s">
         <v>120</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>121</v>
       </c>
-      <c r="J81" t="s">
-        <v>122</v>
-      </c>
       <c r="K81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -58092,16 +58095,16 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
+        <v>122</v>
+      </c>
+      <c r="O81" t="s">
+        <v>121</v>
+      </c>
+      <c r="P81" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q81" t="s">
         <v>123</v>
-      </c>
-      <c r="O81" t="s">
-        <v>122</v>
-      </c>
-      <c r="P81" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>124</v>
       </c>
       <c r="R81" s="1">
         <v>5276.2646484375</v>
@@ -58118,28 +58121,28 @@
         <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
         <v>3</v>
       </c>
       <c r="H82" t="s">
+        <v>119</v>
+      </c>
+      <c r="I82" t="s">
         <v>120</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>121</v>
       </c>
-      <c r="J82" t="s">
-        <v>122</v>
-      </c>
       <c r="K82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -58148,16 +58151,16 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
+        <v>122</v>
+      </c>
+      <c r="O82" t="s">
+        <v>121</v>
+      </c>
+      <c r="P82" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q82" t="s">
         <v>123</v>
-      </c>
-      <c r="O82" t="s">
-        <v>122</v>
-      </c>
-      <c r="P82" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>124</v>
       </c>
       <c r="R82" s="1">
         <v>5333.85302734375</v>
@@ -58174,19 +58177,19 @@
         <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I83" s="1">
         <v>14.574635000000001</v>
@@ -58204,16 +58207,16 @@
         <v>0.85535000955191998</v>
       </c>
       <c r="N83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R83" s="1">
         <v>4791.2939453125</v>
@@ -58230,19 +58233,19 @@
         <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I84" s="1">
         <v>14.637238</v>
@@ -58260,16 +58263,16 @@
         <v>0.84170178737121404</v>
       </c>
       <c r="N84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R84" s="1">
         <v>4929.82373046875</v>
@@ -58286,28 +58289,28 @@
         <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" t="s">
         <v>118</v>
-      </c>
-      <c r="F85" t="s">
-        <v>119</v>
       </c>
       <c r="G85" t="s">
         <v>3</v>
       </c>
       <c r="H85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" t="s">
         <v>120</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>121</v>
       </c>
-      <c r="J85" t="s">
-        <v>122</v>
-      </c>
       <c r="K85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -58316,16 +58319,16 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
+        <v>122</v>
+      </c>
+      <c r="O85" t="s">
+        <v>121</v>
+      </c>
+      <c r="P85" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q85" t="s">
         <v>123</v>
-      </c>
-      <c r="O85" t="s">
-        <v>122</v>
-      </c>
-      <c r="P85" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>124</v>
       </c>
       <c r="R85" s="1">
         <v>4754.14697265625</v>
@@ -58342,28 +58345,28 @@
         <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" t="s">
         <v>118</v>
-      </c>
-      <c r="F86" t="s">
-        <v>119</v>
       </c>
       <c r="G86" t="s">
         <v>3</v>
       </c>
       <c r="H86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" t="s">
         <v>120</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>121</v>
       </c>
-      <c r="J86" t="s">
-        <v>122</v>
-      </c>
       <c r="K86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L86" s="1">
         <v>0</v>
@@ -58372,16 +58375,16 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
+        <v>122</v>
+      </c>
+      <c r="O86" t="s">
+        <v>121</v>
+      </c>
+      <c r="P86" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q86" t="s">
         <v>123</v>
-      </c>
-      <c r="O86" t="s">
-        <v>122</v>
-      </c>
-      <c r="P86" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>124</v>
       </c>
       <c r="R86" s="1">
         <v>4985.2060546875</v>
@@ -58398,28 +58401,28 @@
         <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
         <v>3</v>
       </c>
       <c r="H87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" t="s">
         <v>120</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>121</v>
       </c>
-      <c r="J87" t="s">
-        <v>122</v>
-      </c>
       <c r="K87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L87" s="1">
         <v>0</v>
@@ -58428,16 +58431,16 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
+        <v>122</v>
+      </c>
+      <c r="O87" t="s">
+        <v>121</v>
+      </c>
+      <c r="P87" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q87" t="s">
         <v>123</v>
-      </c>
-      <c r="O87" t="s">
-        <v>122</v>
-      </c>
-      <c r="P87" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>124</v>
       </c>
       <c r="R87" s="1">
         <v>4861.41162109375</v>
@@ -58454,28 +58457,28 @@
         <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
         <v>3</v>
       </c>
       <c r="H88" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" t="s">
         <v>120</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>121</v>
       </c>
-      <c r="J88" t="s">
-        <v>122</v>
-      </c>
       <c r="K88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L88" s="1">
         <v>0</v>
@@ -58484,16 +58487,16 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
+        <v>122</v>
+      </c>
+      <c r="O88" t="s">
+        <v>121</v>
+      </c>
+      <c r="P88" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q88" t="s">
         <v>123</v>
-      </c>
-      <c r="O88" t="s">
-        <v>122</v>
-      </c>
-      <c r="P88" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>124</v>
       </c>
       <c r="R88" s="1">
         <v>4908.470703125</v>
@@ -58510,19 +58513,19 @@
         <v>116</v>
       </c>
       <c r="D89" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I89" s="1">
         <v>9.8220759999999991</v>
@@ -58540,16 +58543,16 @@
         <v>0.92019570188601685</v>
       </c>
       <c r="N89" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R89" s="1">
         <v>5095.14697265625</v>
@@ -58566,19 +58569,19 @@
         <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G90" t="s">
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I90" s="1">
         <v>9.8357500000000009</v>
@@ -58596,16 +58599,16 @@
         <v>0.93930537871118813</v>
       </c>
       <c r="N90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R90" s="1">
         <v>5267.970703125</v>
@@ -58622,19 +58625,19 @@
         <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I91" s="1">
         <v>9.5468445000000006</v>
@@ -58652,16 +58655,16 @@
         <v>0.78353185280034499</v>
       </c>
       <c r="N91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R91" s="1">
         <v>4618.11767578125</v>
@@ -58678,19 +58681,19 @@
         <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I92" s="1">
         <v>9.7095350000000007</v>
@@ -58708,16 +58711,16 @@
         <v>0.80824925947142945</v>
       </c>
       <c r="N92" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R92" s="1">
         <v>4760.64697265625</v>
@@ -58734,19 +58737,19 @@
         <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E93" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" t="s">
         <v>118</v>
-      </c>
-      <c r="F93" t="s">
-        <v>119</v>
       </c>
       <c r="G93" t="s">
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I93" s="1">
         <v>22.209074000000001</v>
@@ -58764,16 +58767,16 @@
         <v>0.97513229639566779</v>
       </c>
       <c r="N93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R93" s="1">
         <v>4888.970703125</v>
@@ -58790,19 +58793,19 @@
         <v>116</v>
       </c>
       <c r="D94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" t="s">
         <v>118</v>
-      </c>
-      <c r="F94" t="s">
-        <v>119</v>
       </c>
       <c r="G94" t="s">
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I94" s="1">
         <v>21.959962999999998</v>
@@ -58820,16 +58823,16 @@
         <v>0.98386427741815763</v>
       </c>
       <c r="N94" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R94" s="1">
         <v>4837.88232421875</v>
@@ -58846,19 +58849,19 @@
         <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G95" t="s">
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I95" s="1">
         <v>21.742056000000002</v>
@@ -58876,16 +58879,16 @@
         <v>0.86071969750094945</v>
       </c>
       <c r="N95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q95" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="R95" s="1">
         <v>4799.35302734375</v>
@@ -58902,19 +58905,19 @@
         <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G96" t="s">
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I96" s="1">
         <v>21.03143</v>
@@ -58932,16 +58935,16 @@
         <v>0.85837825023203629</v>
       </c>
       <c r="N96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q96" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="R96" s="1">
         <v>4741.05859375</v>
@@ -58958,28 +58961,28 @@
         <v>116</v>
       </c>
       <c r="D97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G97" t="s">
         <v>3</v>
       </c>
       <c r="H97" t="s">
+        <v>119</v>
+      </c>
+      <c r="I97" t="s">
         <v>120</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>121</v>
       </c>
-      <c r="J97" t="s">
-        <v>122</v>
-      </c>
       <c r="K97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L97" s="1">
         <v>0</v>
@@ -58988,16 +58991,16 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
+        <v>122</v>
+      </c>
+      <c r="O97" t="s">
+        <v>121</v>
+      </c>
+      <c r="P97" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q97" t="s">
         <v>123</v>
-      </c>
-      <c r="O97" t="s">
-        <v>122</v>
-      </c>
-      <c r="P97" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>124</v>
       </c>
       <c r="R97" s="1">
         <v>5294.2646484375</v>
@@ -59014,28 +59017,28 @@
         <v>116</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G98" t="s">
         <v>3</v>
       </c>
       <c r="H98" t="s">
+        <v>119</v>
+      </c>
+      <c r="I98" t="s">
         <v>120</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>121</v>
       </c>
-      <c r="J98" t="s">
-        <v>122</v>
-      </c>
       <c r="K98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L98" s="1">
         <v>0</v>
@@ -59044,16 +59047,16 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
+        <v>122</v>
+      </c>
+      <c r="O98" t="s">
+        <v>121</v>
+      </c>
+      <c r="P98" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q98" t="s">
         <v>123</v>
-      </c>
-      <c r="O98" t="s">
-        <v>122</v>
-      </c>
-      <c r="P98" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>124</v>
       </c>
       <c r="R98" s="1">
         <v>5206.61767578125</v>
@@ -59070,19 +59073,19 @@
         <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I99" s="1">
         <v>11.270549000000001</v>
@@ -59100,16 +59103,16 @@
         <v>0.79100507294572742</v>
       </c>
       <c r="N99" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R99" s="1">
         <v>4704.529296875</v>
@@ -59126,19 +59129,19 @@
         <v>116</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G100" t="s">
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I100" s="1">
         <v>11.233934</v>
@@ -59156,16 +59159,16 @@
         <v>0.86634003791030267</v>
       </c>
       <c r="N100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R100" s="1">
         <v>4650.7060546875</v>
@@ -59182,28 +59185,28 @@
         <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E101" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" t="s">
         <v>118</v>
-      </c>
-      <c r="F101" t="s">
-        <v>119</v>
       </c>
       <c r="G101" t="s">
         <v>3</v>
       </c>
       <c r="H101" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" t="s">
         <v>120</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>121</v>
       </c>
-      <c r="J101" t="s">
-        <v>122</v>
-      </c>
       <c r="K101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L101" s="1">
         <v>0</v>
@@ -59212,16 +59215,16 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
+        <v>122</v>
+      </c>
+      <c r="O101" t="s">
+        <v>121</v>
+      </c>
+      <c r="P101" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q101" t="s">
         <v>123</v>
-      </c>
-      <c r="O101" t="s">
-        <v>122</v>
-      </c>
-      <c r="P101" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>124</v>
       </c>
       <c r="R101" s="1">
         <v>4862.88232421875</v>
@@ -59238,28 +59241,28 @@
         <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E102" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" t="s">
         <v>118</v>
-      </c>
-      <c r="F102" t="s">
-        <v>119</v>
       </c>
       <c r="G102" t="s">
         <v>3</v>
       </c>
       <c r="H102" t="s">
+        <v>119</v>
+      </c>
+      <c r="I102" t="s">
         <v>120</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>121</v>
       </c>
-      <c r="J102" t="s">
-        <v>122</v>
-      </c>
       <c r="K102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L102" s="1">
         <v>0</v>
@@ -59268,16 +59271,16 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
+        <v>122</v>
+      </c>
+      <c r="O102" t="s">
+        <v>121</v>
+      </c>
+      <c r="P102" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q102" t="s">
         <v>123</v>
-      </c>
-      <c r="O102" t="s">
-        <v>122</v>
-      </c>
-      <c r="P102" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>124</v>
       </c>
       <c r="R102" s="1">
         <v>4882.7060546875</v>
@@ -59294,28 +59297,28 @@
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G103" t="s">
         <v>3</v>
       </c>
       <c r="H103" t="s">
+        <v>119</v>
+      </c>
+      <c r="I103" t="s">
         <v>120</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>121</v>
       </c>
-      <c r="J103" t="s">
-        <v>122</v>
-      </c>
       <c r="K103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L103" s="1">
         <v>0</v>
@@ -59324,16 +59327,16 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
+        <v>122</v>
+      </c>
+      <c r="O103" t="s">
+        <v>121</v>
+      </c>
+      <c r="P103" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q103" t="s">
         <v>123</v>
-      </c>
-      <c r="O103" t="s">
-        <v>122</v>
-      </c>
-      <c r="P103" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>124</v>
       </c>
       <c r="R103" s="1">
         <v>4889.61767578125</v>
@@ -59350,28 +59353,28 @@
         <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G104" t="s">
         <v>3</v>
       </c>
       <c r="H104" t="s">
+        <v>119</v>
+      </c>
+      <c r="I104" t="s">
         <v>120</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>121</v>
       </c>
-      <c r="J104" t="s">
-        <v>122</v>
-      </c>
       <c r="K104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L104" s="1">
         <v>0</v>
@@ -59380,16 +59383,16 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
+        <v>122</v>
+      </c>
+      <c r="O104" t="s">
+        <v>121</v>
+      </c>
+      <c r="P104" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q104" t="s">
         <v>123</v>
-      </c>
-      <c r="O104" t="s">
-        <v>122</v>
-      </c>
-      <c r="P104" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>124</v>
       </c>
       <c r="R104" s="1">
         <v>4858.529296875</v>
@@ -59406,28 +59409,28 @@
         <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G105" t="s">
         <v>3</v>
       </c>
       <c r="H105" t="s">
+        <v>119</v>
+      </c>
+      <c r="I105" t="s">
         <v>120</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>121</v>
       </c>
-      <c r="J105" t="s">
-        <v>122</v>
-      </c>
       <c r="K105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L105" s="1">
         <v>0</v>
@@ -59436,16 +59439,16 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
+        <v>122</v>
+      </c>
+      <c r="O105" t="s">
+        <v>121</v>
+      </c>
+      <c r="P105" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q105" t="s">
         <v>123</v>
-      </c>
-      <c r="O105" t="s">
-        <v>122</v>
-      </c>
-      <c r="P105" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>124</v>
       </c>
       <c r="R105" s="1">
         <v>4856.64697265625</v>
@@ -59462,28 +59465,28 @@
         <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G106" t="s">
         <v>3</v>
       </c>
       <c r="H106" t="s">
+        <v>119</v>
+      </c>
+      <c r="I106" t="s">
         <v>120</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>121</v>
       </c>
-      <c r="J106" t="s">
-        <v>122</v>
-      </c>
       <c r="K106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L106" s="1">
         <v>0</v>
@@ -59492,16 +59495,16 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
+        <v>122</v>
+      </c>
+      <c r="O106" t="s">
+        <v>121</v>
+      </c>
+      <c r="P106" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q106" t="s">
         <v>123</v>
-      </c>
-      <c r="O106" t="s">
-        <v>122</v>
-      </c>
-      <c r="P106" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>124</v>
       </c>
       <c r="R106" s="1">
         <v>4705.17626953125</v>
@@ -59518,19 +59521,19 @@
         <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G107" t="s">
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I107" s="1">
         <v>12.765331</v>
@@ -59548,16 +59551,16 @@
         <v>0.81256900948411959</v>
       </c>
       <c r="N107" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R107" s="1">
         <v>4495.11767578125</v>
@@ -59574,19 +59577,19 @@
         <v>116</v>
       </c>
       <c r="D108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G108" t="s">
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I108" s="1">
         <v>12.785795999999999</v>
@@ -59604,16 +59607,16 @@
         <v>0.77691306169743524</v>
       </c>
       <c r="N108" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R108" s="1">
         <v>4419.41162109375</v>
@@ -59630,28 +59633,28 @@
         <v>116</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
+        <v>117</v>
+      </c>
+      <c r="F109" t="s">
         <v>118</v>
-      </c>
-      <c r="F109" t="s">
-        <v>119</v>
       </c>
       <c r="G109" t="s">
         <v>3</v>
       </c>
       <c r="H109" t="s">
+        <v>119</v>
+      </c>
+      <c r="I109" t="s">
         <v>120</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>121</v>
       </c>
-      <c r="J109" t="s">
-        <v>122</v>
-      </c>
       <c r="K109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L109" s="1">
         <v>0</v>
@@ -59660,16 +59663,16 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
+        <v>122</v>
+      </c>
+      <c r="O109" t="s">
+        <v>121</v>
+      </c>
+      <c r="P109" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q109" t="s">
         <v>123</v>
-      </c>
-      <c r="O109" t="s">
-        <v>122</v>
-      </c>
-      <c r="P109" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>124</v>
       </c>
       <c r="R109" s="1">
         <v>4624.470703125</v>
@@ -59686,28 +59689,28 @@
         <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" t="s">
         <v>118</v>
-      </c>
-      <c r="F110" t="s">
-        <v>119</v>
       </c>
       <c r="G110" t="s">
         <v>3</v>
       </c>
       <c r="H110" t="s">
+        <v>119</v>
+      </c>
+      <c r="I110" t="s">
         <v>120</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>121</v>
       </c>
-      <c r="J110" t="s">
-        <v>122</v>
-      </c>
       <c r="K110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L110" s="1">
         <v>0</v>
@@ -59716,16 +59719,16 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
+        <v>122</v>
+      </c>
+      <c r="O110" t="s">
+        <v>121</v>
+      </c>
+      <c r="P110" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q110" t="s">
         <v>123</v>
-      </c>
-      <c r="O110" t="s">
-        <v>122</v>
-      </c>
-      <c r="P110" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>124</v>
       </c>
       <c r="R110" s="1">
         <v>4351.970703125</v>
@@ -59742,19 +59745,19 @@
         <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G111" t="s">
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I111" s="1">
         <v>30.127146</v>
@@ -59763,7 +59766,7 @@
         <v>30.127145767211914</v>
       </c>
       <c r="K111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L111" s="1">
         <v>1.561846005098557</v>
@@ -59772,16 +59775,16 @@
         <v>0.9732732927933665</v>
       </c>
       <c r="N111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R111" s="1">
         <v>4502.94140625</v>
@@ -59798,28 +59801,28 @@
         <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G112" t="s">
         <v>3</v>
       </c>
       <c r="H112" t="s">
+        <v>119</v>
+      </c>
+      <c r="I112" t="s">
         <v>120</v>
-      </c>
-      <c r="I112" t="s">
-        <v>121</v>
       </c>
       <c r="J112" s="1">
         <v>30.127145767211914</v>
       </c>
       <c r="K112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L112" s="1">
         <v>0</v>
@@ -59828,16 +59831,16 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
+        <v>122</v>
+      </c>
+      <c r="O112" t="s">
+        <v>121</v>
+      </c>
+      <c r="P112" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q112" t="s">
         <v>123</v>
-      </c>
-      <c r="O112" t="s">
-        <v>122</v>
-      </c>
-      <c r="P112" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>124</v>
       </c>
       <c r="R112" s="1">
         <v>4188.08837890625</v>
@@ -59854,19 +59857,19 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G113" t="s">
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I113" s="1">
         <v>22.648872000000001</v>
@@ -59884,16 +59887,16 @@
         <v>0.95448042220945906</v>
       </c>
       <c r="N113" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R113" s="1">
         <v>4388.7939453125</v>
@@ -59910,19 +59913,19 @@
         <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G114" t="s">
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I114" s="1">
         <v>22.726994999999999</v>
@@ -59940,16 +59943,16 @@
         <v>0.96934872214512369</v>
       </c>
       <c r="N114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R114" s="1">
         <v>4187.970703125</v>
@@ -59966,19 +59969,19 @@
         <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G115" t="s">
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I115" s="1">
         <v>31.921683999999999</v>
@@ -59987,7 +59990,7 @@
         <v>31.921684265136719</v>
       </c>
       <c r="K115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L115" s="1">
         <v>1.4262844440030671</v>
@@ -59996,16 +59999,16 @@
         <v>0.94771016363744531</v>
       </c>
       <c r="N115" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R115" s="1">
         <v>4053.029296875</v>
@@ -60022,28 +60025,28 @@
         <v>116</v>
       </c>
       <c r="D116" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G116" t="s">
         <v>3</v>
       </c>
       <c r="H116" t="s">
+        <v>119</v>
+      </c>
+      <c r="I116" t="s">
         <v>120</v>
-      </c>
-      <c r="I116" t="s">
-        <v>121</v>
       </c>
       <c r="J116" s="1">
         <v>31.921684265136719</v>
       </c>
       <c r="K116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L116" s="1">
         <v>0</v>
@@ -60052,16 +60055,16 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
+        <v>122</v>
+      </c>
+      <c r="O116" t="s">
+        <v>121</v>
+      </c>
+      <c r="P116" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q116" t="s">
         <v>123</v>
-      </c>
-      <c r="O116" t="s">
-        <v>122</v>
-      </c>
-      <c r="P116" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>124</v>
       </c>
       <c r="R116" s="1">
         <v>3990.823486328125</v>
